--- a/Data Files/OthersData/tcdatabinding.xlsx
+++ b/Data Files/OthersData/tcdatabinding.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\POOL_Katalon\00_PROJECT\Final_Project\Mobile\katalon-finalmobile-SlametWidodo\Data Files\OthersData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F53BAC0F-11BC-4699-8FB2-872741528DAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0B8015F-1FFF-468A-AB18-FEE132483DA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7200" yWindow="2115" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -64,9 +64,6 @@
     <t>phonenumber</t>
   </si>
   <si>
-    <t>userTest_1</t>
-  </si>
-  <si>
     <t>userTest@mail.com</t>
   </si>
   <si>
@@ -77,6 +74,9 @@
   </si>
   <si>
     <t>Pondok Indah</t>
+  </si>
+  <si>
+    <t>userTest_2</t>
   </si>
 </sst>
 </file>
@@ -464,7 +464,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -496,19 +496,19 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>15</v>
-      </c>
-      <c r="E2" t="s">
-        <v>16</v>
       </c>
       <c r="F2">
         <v>62881152211</v>
